--- a/data/trans_camb/P42-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P42-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,75</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 13,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,49; 22,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 13,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,49; 22,23</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,96%</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 17,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,31; 30,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 17,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,31; 30,03</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 7,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 13,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 13,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 7,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 13,3</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 16,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 9,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 17,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 16,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 9,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 17,16</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 15,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 16,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 10,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 15,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 16,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 10,46</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,39; 20,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 22,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 14,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,39; 20,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 22,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 14,17</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 14,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 13,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,73; 19,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,89; 14,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 13,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,73; 19,09</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,1%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,29; 20,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 18,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 26,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,29; 20,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 18,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 26,11</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 19,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,07; 23,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 20,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 19,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,07; 23,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 20,83</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,31; 28,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,09; 35,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 30,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,31; 28,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,09; 35,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 30,21</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 18,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 11,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,82; 4,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 18,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 11,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,82; 4,61</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,14%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 27,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 16,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 6,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 27,11</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 16,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 6,35</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,83</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 9,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 11,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,64; 4,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 9,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 11,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,64; 4,83</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,32%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,32%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 12,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 14,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,07; 5,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 12,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 14,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,07; 5,83</t>
         </is>
       </c>
     </row>
@@ -2159,32 +2159,32 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 9,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,39; 13,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,9</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 9,15</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,39; 13,6</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,9</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,74%</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 11,89</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 17,76</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 2,41</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 11,89</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 17,76</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 2,41</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2375,32 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 9,88</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 9,9</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 5,15</t>
         </is>
       </c>
     </row>
@@ -2481,32 +2481,32 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 12,61</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,94; 12,67</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42-Provincia-trans_camb.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>14,79</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 15,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 22,23</t>
+          <t>5,59; 21,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 15,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 22,23</t>
+          <t>5,59; 21,43</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 20,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,31; 30,03</t>
+          <t>7,14; 28,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 20,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,31; 30,03</t>
+          <t>7,14; 28,93</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,91</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,3</t>
+          <t>3,94; 13,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,3</t>
+          <t>3,94; 13,54</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 17,16</t>
+          <t>4,68; 17,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 17,16</t>
+          <t>4,68; 17,11</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,14</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 10,46</t>
+          <t>-3,84; 10,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 10,46</t>
+          <t>-3,84; 10,41</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 14,17</t>
+          <t>-4,77; 14,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 14,17</t>
+          <t>-4,77; 14,17</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>15,29</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,99</t>
+          <t>2,28; 14,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 19,09</t>
+          <t>8,99; 21,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,99</t>
+          <t>2,28; 14,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 19,09</t>
+          <t>8,99; 21,59</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 20,95</t>
+          <t>2,84; 20,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,45; 26,11</t>
+          <t>11,29; 29,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 20,95</t>
+          <t>2,84; 20,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,45; 26,11</t>
+          <t>11,29; 29,49</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>13,05</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 20,83</t>
+          <t>5,77; 21,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 20,83</t>
+          <t>5,77; 21,05</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>17,79%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,2; 30,21</t>
+          <t>7,43; 30,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,2; 30,21</t>
+          <t>7,43; 30,81</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,14</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,61</t>
+          <t>-10,93; 4,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,61</t>
+          <t>-10,93; 4,47</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 6,35</t>
+          <t>-14,29; 6,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 6,35</t>
+          <t>-14,29; 6,26</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>-23,78</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>-23,78</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 4,83</t>
+          <t>-61,49; 4,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 4,83</t>
+          <t>-61,49; 4,77</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-28,4%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-28,4%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 5,83</t>
+          <t>-74,46; 5,84</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 5,83</t>
+          <t>-74,46; 5,84</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,9</t>
+          <t>-6,44; 2,72</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,9</t>
+          <t>-6,44; 2,72</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 2,41</t>
+          <t>-7,91; 3,45</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 2,41</t>
+          <t>-7,91; 3,45</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,15</t>
+          <t>-20,77; 6,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 5,15</t>
+          <t>-20,77; 6,2</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 6,55</t>
+          <t>-26,04; 7,84</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 6,55</t>
+          <t>-26,04; 7,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P42-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 15,42</t>
+          <t>2,96; 15,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 13,0</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 21,43</t>
+          <t>5,52; 20,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 15,42</t>
+          <t>2,96; 15,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 13,0</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 21,43</t>
+          <t>5,52; 20,95</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 20,4</t>
+          <t>3,54; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 17,51</t>
+          <t>0,13; 18,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 28,93</t>
+          <t>7,01; 28,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 20,4</t>
+          <t>3,54; 20,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 17,51</t>
+          <t>0,13; 18,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 28,93</t>
+          <t>7,01; 28,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,19</t>
+          <t>5,09; 12,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,53</t>
+          <t>-2,22; 7,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,54</t>
+          <t>3,75; 13,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,19</t>
+          <t>5,09; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,53</t>
+          <t>-2,22; 7,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,54</t>
+          <t>3,75; 13,4</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,66</t>
+          <t>6,13; 16,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,68</t>
+          <t>-2,61; 9,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 17,11</t>
+          <t>4,42; 16,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 16,66</t>
+          <t>6,13; 16,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,68</t>
+          <t>-2,61; 9,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 17,11</t>
+          <t>4,42; 16,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 15,19</t>
+          <t>3,29; 15,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,15</t>
+          <t>4,25; 16,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,41</t>
+          <t>-2,31; 10,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 15,19</t>
+          <t>3,29; 15,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,15</t>
+          <t>4,25; 16,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,41</t>
+          <t>-2,31; 10,99</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 20,82</t>
+          <t>4,25; 21,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 22,31</t>
+          <t>5,37; 22,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 14,17</t>
+          <t>-3,02; 15,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 20,82</t>
+          <t>4,25; 21,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 22,31</t>
+          <t>5,37; 22,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 14,17</t>
+          <t>-3,02; 15,33</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 14,38</t>
+          <t>2,23; 13,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 13,67</t>
+          <t>2,72; 14,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 21,59</t>
+          <t>9,19; 21,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 14,38</t>
+          <t>2,23; 13,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 13,67</t>
+          <t>2,72; 14,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 21,59</t>
+          <t>9,19; 21,34</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,84; 20,02</t>
+          <t>2,87; 18,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 18,62</t>
+          <t>3,51; 19,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,29; 29,49</t>
+          <t>11,39; 29,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,84; 20,02</t>
+          <t>2,87; 18,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 18,62</t>
+          <t>3,51; 19,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,29; 29,49</t>
+          <t>11,39; 29,47</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,06; 19,68</t>
+          <t>4,62; 20,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,07; 23,5</t>
+          <t>8,84; 23,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,77; 21,05</t>
+          <t>4,9; 20,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,06; 19,68</t>
+          <t>4,62; 20,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,07; 23,5</t>
+          <t>8,84; 23,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,77; 21,05</t>
+          <t>4,9; 20,47</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,31; 28,67</t>
+          <t>6,02; 29,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,09; 35,12</t>
+          <t>11,26; 35,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,43; 30,81</t>
+          <t>6,33; 30,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,31; 28,67</t>
+          <t>6,02; 29,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,09; 35,12</t>
+          <t>11,26; 35,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,43; 30,81</t>
+          <t>6,33; 30,07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,97; 18,7</t>
+          <t>5,7; 18,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,36</t>
+          <t>-2,09; 12,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 4,47</t>
+          <t>-10,53; 4,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,97; 18,7</t>
+          <t>5,7; 18,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,36</t>
+          <t>-2,09; 12,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 4,47</t>
+          <t>-10,53; 4,33</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,11</t>
+          <t>7,28; 27,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 16,49</t>
+          <t>-2,76; 17,46</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 6,26</t>
+          <t>-13,8; 6,16</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,85; 27,11</t>
+          <t>7,28; 27,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 16,49</t>
+          <t>-2,76; 17,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 6,26</t>
+          <t>-13,8; 6,16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,93</t>
+          <t>2,03; 9,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,65</t>
+          <t>4,04; 11,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 4,77</t>
+          <t>-58,5; 5,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,93</t>
+          <t>2,03; 9,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,65</t>
+          <t>4,04; 11,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-61,49; 4,77</t>
+          <t>-58,5; 5,15</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,94; 12,29</t>
+          <t>2,24; 11,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,58</t>
+          <t>4,7; 14,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-74,46; 5,84</t>
+          <t>-69,49; 6,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>2,94; 12,29</t>
+          <t>2,24; 11,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>5,4; 14,58</t>
+          <t>4,7; 14,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-74,46; 5,84</t>
+          <t>-69,49; 6,21</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,15</t>
+          <t>1,28; 9,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,6</t>
+          <t>6,14; 13,23</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,72</t>
+          <t>-6,28; 2,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,15</t>
+          <t>1,28; 9,11</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,6</t>
+          <t>6,14; 13,23</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,72</t>
+          <t>-6,28; 2,87</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,89</t>
+          <t>1,55; 11,75</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,84; 17,76</t>
+          <t>7,4; 16,98</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 3,45</t>
+          <t>-7,69; 3,49</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,89</t>
+          <t>1,55; 11,75</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,84; 17,76</t>
+          <t>7,4; 16,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 3,45</t>
+          <t>-7,69; 3,49</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,88</t>
+          <t>6,43; 9,98</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,9</t>
+          <t>6,4; 9,93</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 6,2</t>
+          <t>-19,42; 6,21</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,61</t>
+          <t>8,02; 12,86</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,67</t>
+          <t>8,01; 12,81</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 7,84</t>
+          <t>-24,65; 7,89</t>
         </is>
       </c>
     </row>
